--- a/4.Planejamento/Projeto de pesquisa_PGEBM.xlsx
+++ b/4.Planejamento/Projeto de pesquisa_PGEBM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{08218AA7-3D97-450B-A930-44AD2FBB969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41037357-44CC-428C-AC4B-540742598860}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{08218AA7-3D97-450B-A930-44AD2FBB969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6908CE44-639E-4216-A977-D84BA14DE481}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -231,9 +231,6 @@
     <t>Github: carregar uma amostra total de dados para forces e marker e 3ds</t>
   </si>
   <si>
-    <t>Vscode: carregar dados para uma amostra, marker e force (amostra 8)</t>
-  </si>
-  <si>
     <t>Bibliografia</t>
   </si>
   <si>
@@ -256,6 +253,27 @@
   </si>
   <si>
     <t>Reunião 2</t>
+  </si>
+  <si>
+    <t>Vscode: carregar dados para uma amostra, marker e force (amostra 8) para 3,5m/s</t>
+  </si>
+  <si>
+    <t>Reunião 3</t>
+  </si>
+  <si>
+    <t>Reunião 4</t>
+  </si>
+  <si>
+    <t>Criar código para o modelo MSD do artigo Nedergaard</t>
+  </si>
+  <si>
+    <t>Reunião 5</t>
+  </si>
+  <si>
+    <t>Criar código usando dinâmina indireta, para obternção do GRF, usar artigos Niels e Derrick</t>
+  </si>
+  <si>
+    <t>Modelamento por dinâmica direta da GRF e aceleração</t>
   </si>
 </sst>
 </file>
@@ -271,7 +289,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,13 +1532,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>109594</xdr:colOff>
+      <xdr:colOff>204844</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>137395</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13570</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>316134</xdr:rowOff>
     </xdr:to>
@@ -1545,8 +1563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17416519" y="171451"/>
-          <a:ext cx="703018" cy="649508"/>
+          <a:off x="21169369" y="171451"/>
+          <a:ext cx="685026" cy="649508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,14 +1902,14 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:D12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" customWidth="1"/>
@@ -1904,8 +1922,8 @@
     <col min="68" max="69" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:63" ht="9.9" customHeight="1"/>
+    <row r="2" spans="1:63" ht="30" customHeight="1">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1919,12 +1937,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:63" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="49.95" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>20</v>
@@ -1935,7 +1953,7 @@
       </c>
       <c r="F3" s="63"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" ht="30" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
@@ -1947,11 +1965,11 @@
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H4" s="60">
         <f>H5</f>
-        <v>45593</v>
+        <v>45670</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
@@ -1961,7 +1979,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="60">
         <f>O5</f>
-        <v>45600</v>
+        <v>45677</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
@@ -1971,7 +1989,7 @@
       <c r="U4" s="62"/>
       <c r="V4" s="60">
         <f>V5</f>
-        <v>45607</v>
+        <v>45684</v>
       </c>
       <c r="W4" s="61"/>
       <c r="X4" s="61"/>
@@ -1981,7 +1999,7 @@
       <c r="AB4" s="62"/>
       <c r="AC4" s="60">
         <f>AC5</f>
-        <v>45614</v>
+        <v>45691</v>
       </c>
       <c r="AD4" s="61"/>
       <c r="AE4" s="61"/>
@@ -1991,7 +2009,7 @@
       <c r="AI4" s="62"/>
       <c r="AJ4" s="60">
         <f>AJ5</f>
-        <v>45621</v>
+        <v>45698</v>
       </c>
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
@@ -2001,7 +2019,7 @@
       <c r="AP4" s="62"/>
       <c r="AQ4" s="60">
         <f>AQ5</f>
-        <v>45628</v>
+        <v>45705</v>
       </c>
       <c r="AR4" s="61"/>
       <c r="AS4" s="61"/>
@@ -2011,7 +2029,7 @@
       <c r="AW4" s="62"/>
       <c r="AX4" s="60">
         <f>AX5</f>
-        <v>45635</v>
+        <v>45712</v>
       </c>
       <c r="AY4" s="61"/>
       <c r="AZ4" s="61"/>
@@ -2021,7 +2039,7 @@
       <c r="BD4" s="62"/>
       <c r="BE4" s="60">
         <f>BE5</f>
-        <v>45642</v>
+        <v>45719</v>
       </c>
       <c r="BF4" s="61"/>
       <c r="BG4" s="61"/>
@@ -2030,7 +2048,7 @@
       <c r="BJ4" s="61"/>
       <c r="BK4" s="62"/>
     </row>
-    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" ht="15" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -2041,230 +2059,230 @@
       <c r="F5" s="40"/>
       <c r="H5" s="46">
         <f>Início_do_projeto-WEEKDAY(Início_do_projeto,1)+2+7*(Semana_de_exibição-1)</f>
-        <v>45593</v>
+        <v>45670</v>
       </c>
       <c r="I5" s="47">
         <f>H5+1</f>
-        <v>45594</v>
+        <v>45671</v>
       </c>
       <c r="J5" s="47">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
-        <v>45595</v>
+        <v>45672</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" si="0"/>
-        <v>45596</v>
+        <v>45673</v>
       </c>
       <c r="L5" s="47">
         <f t="shared" si="0"/>
-        <v>45597</v>
+        <v>45674</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" si="0"/>
-        <v>45598</v>
+        <v>45675</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" si="0"/>
-        <v>45599</v>
+        <v>45676</v>
       </c>
       <c r="O5" s="46">
         <f>N5+1</f>
-        <v>45600</v>
+        <v>45677</v>
       </c>
       <c r="P5" s="47">
         <f>O5+1</f>
-        <v>45601</v>
+        <v>45678</v>
       </c>
       <c r="Q5" s="47">
         <f t="shared" si="0"/>
-        <v>45602</v>
+        <v>45679</v>
       </c>
       <c r="R5" s="47">
         <f t="shared" si="0"/>
-        <v>45603</v>
+        <v>45680</v>
       </c>
       <c r="S5" s="47">
         <f t="shared" si="0"/>
-        <v>45604</v>
+        <v>45681</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" si="0"/>
-        <v>45605</v>
+        <v>45682</v>
       </c>
       <c r="U5" s="48">
         <f t="shared" si="0"/>
-        <v>45606</v>
+        <v>45683</v>
       </c>
       <c r="V5" s="46">
         <f>U5+1</f>
-        <v>45607</v>
+        <v>45684</v>
       </c>
       <c r="W5" s="47">
         <f>V5+1</f>
-        <v>45608</v>
+        <v>45685</v>
       </c>
       <c r="X5" s="47">
         <f t="shared" si="0"/>
-        <v>45609</v>
+        <v>45686</v>
       </c>
       <c r="Y5" s="47">
         <f t="shared" si="0"/>
-        <v>45610</v>
+        <v>45687</v>
       </c>
       <c r="Z5" s="47">
         <f t="shared" si="0"/>
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AA5" s="47">
         <f t="shared" si="0"/>
-        <v>45612</v>
+        <v>45689</v>
       </c>
       <c r="AB5" s="48">
         <f t="shared" si="0"/>
-        <v>45613</v>
+        <v>45690</v>
       </c>
       <c r="AC5" s="46">
         <f>AB5+1</f>
-        <v>45614</v>
+        <v>45691</v>
       </c>
       <c r="AD5" s="47">
         <f>AC5+1</f>
-        <v>45615</v>
+        <v>45692</v>
       </c>
       <c r="AE5" s="47">
         <f t="shared" si="0"/>
-        <v>45616</v>
+        <v>45693</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" si="0"/>
-        <v>45617</v>
+        <v>45694</v>
       </c>
       <c r="AG5" s="47">
         <f t="shared" si="0"/>
-        <v>45618</v>
+        <v>45695</v>
       </c>
       <c r="AH5" s="47">
         <f t="shared" si="0"/>
-        <v>45619</v>
+        <v>45696</v>
       </c>
       <c r="AI5" s="48">
         <f t="shared" si="0"/>
-        <v>45620</v>
+        <v>45697</v>
       </c>
       <c r="AJ5" s="46">
         <f>AI5+1</f>
-        <v>45621</v>
+        <v>45698</v>
       </c>
       <c r="AK5" s="47">
         <f>AJ5+1</f>
-        <v>45622</v>
+        <v>45699</v>
       </c>
       <c r="AL5" s="47">
         <f t="shared" si="0"/>
-        <v>45623</v>
+        <v>45700</v>
       </c>
       <c r="AM5" s="47">
         <f t="shared" si="0"/>
-        <v>45624</v>
+        <v>45701</v>
       </c>
       <c r="AN5" s="47">
         <f t="shared" si="0"/>
-        <v>45625</v>
+        <v>45702</v>
       </c>
       <c r="AO5" s="47">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45703</v>
       </c>
       <c r="AP5" s="48">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45704</v>
       </c>
       <c r="AQ5" s="46">
         <f>AP5+1</f>
-        <v>45628</v>
+        <v>45705</v>
       </c>
       <c r="AR5" s="47">
         <f>AQ5+1</f>
-        <v>45629</v>
+        <v>45706</v>
       </c>
       <c r="AS5" s="47">
         <f t="shared" si="0"/>
-        <v>45630</v>
+        <v>45707</v>
       </c>
       <c r="AT5" s="47">
         <f t="shared" si="0"/>
-        <v>45631</v>
+        <v>45708</v>
       </c>
       <c r="AU5" s="47">
         <f t="shared" si="0"/>
-        <v>45632</v>
+        <v>45709</v>
       </c>
       <c r="AV5" s="47">
         <f t="shared" si="0"/>
-        <v>45633</v>
+        <v>45710</v>
       </c>
       <c r="AW5" s="48">
         <f t="shared" si="0"/>
-        <v>45634</v>
+        <v>45711</v>
       </c>
       <c r="AX5" s="46">
         <f>AW5+1</f>
-        <v>45635</v>
+        <v>45712</v>
       </c>
       <c r="AY5" s="47">
         <f>AX5+1</f>
-        <v>45636</v>
+        <v>45713</v>
       </c>
       <c r="AZ5" s="47">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
-        <v>45637</v>
+        <v>45714</v>
       </c>
       <c r="BA5" s="47">
         <f t="shared" si="1"/>
-        <v>45638</v>
+        <v>45715</v>
       </c>
       <c r="BB5" s="47">
         <f t="shared" si="1"/>
-        <v>45639</v>
+        <v>45716</v>
       </c>
       <c r="BC5" s="47">
         <f t="shared" si="1"/>
-        <v>45640</v>
+        <v>45717</v>
       </c>
       <c r="BD5" s="48">
         <f t="shared" si="1"/>
-        <v>45641</v>
+        <v>45718</v>
       </c>
       <c r="BE5" s="46">
         <f>BD5+1</f>
-        <v>45642</v>
+        <v>45719</v>
       </c>
       <c r="BF5" s="47">
         <f>BE5+1</f>
-        <v>45643</v>
+        <v>45720</v>
       </c>
       <c r="BG5" s="47">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
-        <v>45644</v>
+        <v>45721</v>
       </c>
       <c r="BH5" s="47">
         <f t="shared" si="2"/>
-        <v>45645</v>
+        <v>45722</v>
       </c>
       <c r="BI5" s="47">
         <f t="shared" si="2"/>
-        <v>45646</v>
+        <v>45723</v>
       </c>
       <c r="BJ5" s="47">
         <f t="shared" si="2"/>
-        <v>45647</v>
+        <v>45724</v>
       </c>
       <c r="BK5" s="48">
         <f t="shared" si="2"/>
-        <v>45648</v>
+        <v>45725</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2529,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
@@ -2578,7 +2596,7 @@
       <c r="BJ7" s="19"/>
       <c r="BK7" s="19"/>
     </row>
-    <row r="8" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2608,7 @@
       <c r="E8" s="55"/>
       <c r="F8" s="56"/>
       <c r="G8" s="13" t="str">
-        <f t="shared" ref="G8:G37" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="G8:G39" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="H8" s="19"/>
@@ -2650,7 +2668,7 @@
       <c r="BJ8" s="19"/>
       <c r="BK8" s="19"/>
     </row>
-    <row r="9" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="52">
         <v>45598</v>
@@ -2730,7 +2748,7 @@
       <c r="BJ9" s="19"/>
       <c r="BK9" s="19"/>
     </row>
-    <row r="10" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2759,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="52">
         <v>45598</v>
@@ -2810,16 +2828,16 @@
       <c r="BJ10" s="19"/>
       <c r="BK10" s="19"/>
     </row>
-    <row r="11" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="33"/>
       <c r="B11" s="51" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="52">
         <v>45598</v>
@@ -2888,16 +2906,26 @@
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19"/>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="13" t="str">
+      <c r="B12" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="52">
+        <v>45671</v>
+      </c>
+      <c r="F12" s="52">
+        <v>45674</v>
+      </c>
+      <c r="G12" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -2915,7 +2943,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
+      <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
@@ -2956,16 +2984,24 @@
       <c r="BJ12" s="19"/>
       <c r="BK12" s="19"/>
     </row>
-    <row r="13" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="33"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="13" t="str">
+      <c r="E13" s="52">
+        <v>45674</v>
+      </c>
+      <c r="F13" s="52">
+        <v>45680</v>
+      </c>
+      <c r="G13" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -2983,7 +3019,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
+      <c r="X13" s="20"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
@@ -3024,17 +3060,13 @@
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19"/>
     </row>
-    <row r="14" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
+    <row r="14" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3096,24 +3128,20 @@
       <c r="BJ14" s="19"/>
       <c r="BK14" s="19"/>
     </row>
-    <row r="15" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="52">
-        <v>45600</v>
-      </c>
-      <c r="F15" s="52">
-        <v>45604</v>
-      </c>
-      <c r="G15" s="13">
+    <row r="15" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -3172,20 +3200,22 @@
       <c r="BJ15" s="19"/>
       <c r="BK15" s="19"/>
     </row>
-    <row r="16" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="33"/>
       <c r="B16" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="50">
+        <v>1</v>
+      </c>
       <c r="E16" s="52">
-        <v>45604</v>
+        <v>45672</v>
       </c>
       <c r="F16" s="52">
-        <v>45606</v>
+        <v>45674</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="6"/>
@@ -3248,16 +3278,24 @@
       <c r="BJ16" s="19"/>
       <c r="BK16" s="19"/>
     </row>
-    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="33"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="50"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="13" t="str">
+      <c r="E17" s="52">
+        <v>45674</v>
+      </c>
+      <c r="F17" s="52">
+        <v>45678</v>
+      </c>
+      <c r="G17" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -3316,7 +3354,7 @@
       <c r="BJ17" s="19"/>
       <c r="BK17" s="19"/>
     </row>
-    <row r="18" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="33"/>
       <c r="B18" s="53"/>
       <c r="C18" s="49"/>
@@ -3384,7 +3422,7 @@
       <c r="BJ18" s="19"/>
       <c r="BK18" s="19"/>
     </row>
-    <row r="19" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="33"/>
       <c r="B19" s="51"/>
       <c r="C19" s="49"/>
@@ -3452,12 +3490,12 @@
       <c r="BJ19" s="19"/>
       <c r="BK19" s="19"/>
     </row>
-    <row r="20" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="14"/>
@@ -3524,22 +3562,26 @@
       <c r="BJ20" s="19"/>
       <c r="BK20" s="19"/>
     </row>
-    <row r="21" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="33"/>
       <c r="B21" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="13" t="e">
+        <v>64</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="50">
+        <v>1</v>
+      </c>
+      <c r="E21" s="52">
+        <v>45672</v>
+      </c>
+      <c r="F21" s="52">
+        <v>45674</v>
+      </c>
+      <c r="G21" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -3598,7 +3640,7 @@
       <c r="BJ21" s="19"/>
       <c r="BK21" s="19"/>
     </row>
-    <row r="22" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="33"/>
       <c r="B22" s="53"/>
       <c r="C22" s="49"/>
@@ -3666,7 +3708,7 @@
       <c r="BJ22" s="19"/>
       <c r="BK22" s="19"/>
     </row>
-    <row r="23" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="33"/>
       <c r="B23" s="53"/>
       <c r="C23" s="49"/>
@@ -3734,7 +3776,7 @@
       <c r="BJ23" s="19"/>
       <c r="BK23" s="19"/>
     </row>
-    <row r="24" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="33"/>
       <c r="B24" s="53"/>
       <c r="C24" s="49"/>
@@ -3802,7 +3844,7 @@
       <c r="BJ24" s="19"/>
       <c r="BK24" s="19"/>
     </row>
-    <row r="25" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="33"/>
       <c r="B25" s="53"/>
       <c r="C25" s="49"/>
@@ -3870,7 +3912,7 @@
       <c r="BJ25" s="19"/>
       <c r="BK25" s="19"/>
     </row>
-    <row r="26" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="33" t="s">
         <v>10</v>
       </c>
@@ -3942,7 +3984,7 @@
       <c r="BJ26" s="19"/>
       <c r="BK26" s="19"/>
     </row>
-    <row r="27" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="33"/>
       <c r="B27" s="53" t="s">
         <v>14</v>
@@ -4016,7 +4058,7 @@
       <c r="BJ27" s="19"/>
       <c r="BK27" s="19"/>
     </row>
-    <row r="28" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="33"/>
       <c r="B28" s="53" t="s">
         <v>15</v>
@@ -4090,7 +4132,7 @@
       <c r="BJ28" s="19"/>
       <c r="BK28" s="19"/>
     </row>
-    <row r="29" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="33"/>
       <c r="B29" s="53" t="s">
         <v>16</v>
@@ -4164,7 +4206,7 @@
       <c r="BJ29" s="19"/>
       <c r="BK29" s="19"/>
     </row>
-    <row r="30" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="33"/>
       <c r="B30" s="53" t="s">
         <v>17</v>
@@ -4238,7 +4280,7 @@
       <c r="BJ30" s="19"/>
       <c r="BK30" s="19"/>
     </row>
-    <row r="31" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="33"/>
       <c r="B31" s="53" t="s">
         <v>18</v>
@@ -4312,10 +4354,10 @@
       <c r="BJ31" s="19"/>
       <c r="BK31" s="19"/>
     </row>
-    <row r="32" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="33"/>
       <c r="B32" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="14"/>
@@ -4382,12 +4424,14 @@
       <c r="BJ32" s="19"/>
       <c r="BK32" s="19"/>
     </row>
-    <row r="33" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="33"/>
       <c r="B33" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="49"/>
+        <v>56</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>44</v>
+      </c>
       <c r="D33" s="50">
         <v>1</v>
       </c>
@@ -4458,13 +4502,17 @@
       <c r="BJ33" s="19"/>
       <c r="BK33" s="19"/>
     </row>
-    <row r="34" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="33"/>
       <c r="B34" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
+        <v>57</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="50">
+        <v>1</v>
+      </c>
       <c r="E34" s="52">
         <v>45609</v>
       </c>
@@ -4532,14 +4580,27 @@
       <c r="BJ34" s="19"/>
       <c r="BK34" s="19"/>
     </row>
-    <row r="35" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="33"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="13"/>
+      <c r="B35" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="50">
+        <v>1</v>
+      </c>
+      <c r="E35" s="52">
+        <v>45667</v>
+      </c>
+      <c r="F35" s="52">
+        <v>45667</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
@@ -4597,18 +4658,26 @@
       <c r="BJ35" s="19"/>
       <c r="BK35" s="19"/>
     </row>
-    <row r="36" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="13" t="str">
+    <row r="36" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A36" s="33"/>
+      <c r="B36" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1</v>
+      </c>
+      <c r="E36" s="52">
+        <v>45674</v>
+      </c>
+      <c r="F36" s="52">
+        <v>45674</v>
+      </c>
+      <c r="G36" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -4667,84 +4736,227 @@
       <c r="BJ36" s="19"/>
       <c r="BK36" s="19"/>
     </row>
-    <row r="37" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="18" t="str">
+    <row r="37" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A37" s="33"/>
+      <c r="B37" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="52">
+        <v>45681</v>
+      </c>
+      <c r="F37" s="52">
+        <v>45681</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="19"/>
+      <c r="BH37" s="19"/>
+      <c r="BI37" s="19"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="19"/>
+    </row>
+    <row r="38" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="21"/>
-      <c r="BJ37" s="21"/>
-      <c r="BK37" s="21"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
     </row>
-    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="10"/>
-      <c r="F39" s="35"/>
+    <row r="39" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A39" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="21"/>
+      <c r="BE39" s="21"/>
+      <c r="BF39" s="21"/>
+      <c r="BG39" s="21"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
     </row>
-    <row r="40" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="11"/>
+    <row r="41" spans="1:63" ht="30" customHeight="1">
+      <c r="C41" s="10"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:63" ht="30" customHeight="1">
+      <c r="C42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4760,7 +4972,7 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D37">
+  <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4774,12 +4986,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BK37">
+  <conditionalFormatting sqref="H5:BK39">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK37">
+  <conditionalFormatting sqref="H7:BK39">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(Início_da_tarefa&lt;=H$5,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=H$5)</formula>
     </cfRule>
@@ -4815,7 +5027,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D37</xm:sqref>
+          <xm:sqref>D7:D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4829,86 +5041,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="94.44140625" style="23" customWidth="1"/>
     <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="25" customFormat="1" ht="15.6">
       <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="26" customFormat="1" ht="25.8">
       <c r="A4" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="23" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="23" customFormat="1" ht="204.9" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="26" customFormat="1" ht="25.8">
       <c r="A8" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="57.6">
       <c r="A9" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="26" customFormat="1" ht="25.8">
       <c r="A11" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.8">
       <c r="A12" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="26" customFormat="1" ht="25.8">
       <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>42</v>
       </c>
@@ -4927,6 +5139,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5214,36 +5455,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5262,24 +5494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>